--- a/classfiers/mega/elm/ELM_rbf_linf_results.xlsx
+++ b/classfiers/mega/elm/ELM_rbf_linf_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8326180257510729</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7854077253218884</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7811158798283262</v>
+        <v>0.7783018867924528</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7887931034482759</v>
+        <v>0.8066037735849056</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7887931034482759</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7953455675595679</v>
+        <v>0.7956683497209672</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
